--- a/Data/Book3.xlsx
+++ b/Data/Book3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
   <si>
     <t>id</t>
   </si>
@@ -481,6 +481,213 @@
   </si>
   <si>
     <t>Kolkata , West Bengal</t>
+  </si>
+  <si>
+    <t>17.68°N</t>
+  </si>
+  <si>
+    <t>83.21°E</t>
+  </si>
+  <si>
+    <t>91.85°E</t>
+  </si>
+  <si>
+    <t>27.58°N</t>
+  </si>
+  <si>
+    <t>26.14°N</t>
+  </si>
+  <si>
+    <t>91.73°E</t>
+  </si>
+  <si>
+    <t>84.99°E</t>
+  </si>
+  <si>
+    <t>24.69°N</t>
+  </si>
+  <si>
+    <t>30.73°N</t>
+  </si>
+  <si>
+    <t>76.77°E</t>
+  </si>
+  <si>
+    <t>81.62°E</t>
+  </si>
+  <si>
+    <t>21.25°N</t>
+  </si>
+  <si>
+    <t>20.39°N</t>
+  </si>
+  <si>
+    <t>72.83°E</t>
+  </si>
+  <si>
+    <t>71.20°E</t>
+  </si>
+  <si>
+    <t>28.61°N</t>
+  </si>
+  <si>
+    <t>15.49°N</t>
+  </si>
+  <si>
+    <t>73.82°E</t>
+  </si>
+  <si>
+    <t>73.71°E</t>
+  </si>
+  <si>
+    <t>21.83°N</t>
+  </si>
+  <si>
+    <t>28.45°N</t>
+  </si>
+  <si>
+    <t>71.02°E</t>
+  </si>
+  <si>
+    <t>77.17°E</t>
+  </si>
+  <si>
+    <t>31.10°N</t>
+  </si>
+  <si>
+    <t>34.08°N</t>
+  </si>
+  <si>
+    <t>74.79°E</t>
+  </si>
+  <si>
+    <t>85.30°E</t>
+  </si>
+  <si>
+    <t>23.34°N</t>
+  </si>
+  <si>
+    <t>12.97°N</t>
+  </si>
+  <si>
+    <t>77.59°E</t>
+  </si>
+  <si>
+    <t>76.93°E</t>
+  </si>
+  <si>
+    <t>8.52°N</t>
+  </si>
+  <si>
+    <t>34.15°N</t>
+  </si>
+  <si>
+    <t>77.57°E</t>
+  </si>
+  <si>
+    <t>72.64°E</t>
+  </si>
+  <si>
+    <t>10.56°N</t>
+  </si>
+  <si>
+    <t>24.83°N</t>
+  </si>
+  <si>
+    <t>79.91°E</t>
+  </si>
+  <si>
+    <t>72.87°E</t>
+  </si>
+  <si>
+    <t>19.07°N</t>
+  </si>
+  <si>
+    <t>24.81°N</t>
+  </si>
+  <si>
+    <t>93.93°E</t>
+  </si>
+  <si>
+    <t>91.89°E</t>
+  </si>
+  <si>
+    <t>25.57°N</t>
+  </si>
+  <si>
+    <t>23.72°N</t>
+  </si>
+  <si>
+    <t>92.71°E</t>
+  </si>
+  <si>
+    <t>94.11°E</t>
+  </si>
+  <si>
+    <t>25.67°N</t>
+  </si>
+  <si>
+    <t>19.88°N</t>
+  </si>
+  <si>
+    <t>86.09°E</t>
+  </si>
+  <si>
+    <t>79.80°E</t>
+  </si>
+  <si>
+    <t>11.94°N</t>
+  </si>
+  <si>
+    <t>31.63°N</t>
+  </si>
+  <si>
+    <t>74.87°E</t>
+  </si>
+  <si>
+    <t>75.78°E</t>
+  </si>
+  <si>
+    <t>26.91°N</t>
+  </si>
+  <si>
+    <t>27.33°N</t>
+  </si>
+  <si>
+    <t>88.61°E</t>
+  </si>
+  <si>
+    <t>78.11°E</t>
+  </si>
+  <si>
+    <t>9.92°N</t>
+  </si>
+  <si>
+    <t>13.38°N</t>
+  </si>
+  <si>
+    <t>78.48°E</t>
+  </si>
+  <si>
+    <t>91.28°E</t>
+  </si>
+  <si>
+    <t>23.83°N</t>
+  </si>
+  <si>
+    <t>27.17°N</t>
+  </si>
+  <si>
+    <t>78.00°E</t>
+  </si>
+  <si>
+    <t>79.06°E</t>
+  </si>
+  <si>
+    <t>22.57°N</t>
+  </si>
+  <si>
+    <t>88.36°E</t>
   </si>
 </sst>
 </file>
@@ -824,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,6 +1115,12 @@
       <c r="E3" t="s">
         <v>87</v>
       </c>
+      <c r="F3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" t="s">
+        <v>156</v>
+      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
@@ -925,6 +1138,12 @@
       <c r="E4" t="s">
         <v>88</v>
       </c>
+      <c r="F4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" t="s">
+        <v>157</v>
+      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
@@ -942,6 +1161,12 @@
       <c r="E5" t="s">
         <v>91</v>
       </c>
+      <c r="F5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" t="s">
+        <v>160</v>
+      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
@@ -959,6 +1184,12 @@
       <c r="E6" t="s">
         <v>93</v>
       </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" t="s">
+        <v>161</v>
+      </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
@@ -976,6 +1207,12 @@
       <c r="E7" t="s">
         <v>94</v>
       </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
@@ -993,6 +1230,12 @@
       <c r="E8" t="s">
         <v>97</v>
       </c>
+      <c r="F8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" t="s">
+        <v>165</v>
+      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
@@ -1010,6 +1253,12 @@
       <c r="E9" t="s">
         <v>98</v>
       </c>
+      <c r="F9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" t="s">
+        <v>168</v>
+      </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
@@ -1027,6 +1276,12 @@
       <c r="E10" t="s">
         <v>101</v>
       </c>
+      <c r="F10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" t="s">
+        <v>169</v>
+      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
@@ -1044,6 +1299,12 @@
       <c r="E11" t="s">
         <v>102</v>
       </c>
+      <c r="F11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
@@ -1061,6 +1322,12 @@
       <c r="E12" t="s">
         <v>105</v>
       </c>
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" t="s">
+        <v>173</v>
+      </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
@@ -1078,6 +1345,12 @@
       <c r="E13" t="s">
         <v>106</v>
       </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" t="s">
+        <v>176</v>
+      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
@@ -1095,6 +1368,12 @@
       <c r="E14" t="s">
         <v>109</v>
       </c>
+      <c r="F14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" t="s">
+        <v>177</v>
+      </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
@@ -1112,6 +1391,12 @@
       <c r="E15" t="s">
         <v>110</v>
       </c>
+      <c r="F15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" t="s">
+        <v>180</v>
+      </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
@@ -1129,6 +1414,12 @@
       <c r="E16" t="s">
         <v>113</v>
       </c>
+      <c r="F16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" t="s">
+        <v>181</v>
+      </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
@@ -1146,6 +1437,12 @@
       <c r="E17" t="s">
         <v>114</v>
       </c>
+      <c r="F17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" t="s">
+        <v>184</v>
+      </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
@@ -1163,6 +1460,12 @@
       <c r="E18" t="s">
         <v>117</v>
       </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" t="s">
+        <v>185</v>
+      </c>
       <c r="I18" t="b">
         <v>1</v>
       </c>
@@ -1180,6 +1483,12 @@
       <c r="E19" t="s">
         <v>118</v>
       </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>188</v>
+      </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
@@ -1197,6 +1506,12 @@
       <c r="E20" t="s">
         <v>121</v>
       </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>189</v>
+      </c>
       <c r="I20" t="b">
         <v>1</v>
       </c>
@@ -1214,6 +1529,12 @@
       <c r="E21" t="s">
         <v>122</v>
       </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>192</v>
+      </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
@@ -1231,6 +1552,12 @@
       <c r="E22" t="s">
         <v>125</v>
       </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>193</v>
+      </c>
       <c r="I22" t="b">
         <v>1</v>
       </c>
@@ -1248,6 +1575,12 @@
       <c r="E23" t="s">
         <v>126</v>
       </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>196</v>
+      </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
@@ -1265,6 +1598,12 @@
       <c r="E24" t="s">
         <v>129</v>
       </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" t="s">
+        <v>197</v>
+      </c>
       <c r="I24" t="b">
         <v>1</v>
       </c>
@@ -1282,6 +1621,12 @@
       <c r="E25" t="s">
         <v>130</v>
       </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>200</v>
+      </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
@@ -1299,6 +1644,12 @@
       <c r="E26" t="s">
         <v>133</v>
       </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>201</v>
+      </c>
       <c r="I26" t="b">
         <v>1</v>
       </c>
@@ -1316,6 +1667,12 @@
       <c r="E27" t="s">
         <v>134</v>
       </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>204</v>
+      </c>
       <c r="I27" t="b">
         <v>1</v>
       </c>
@@ -1333,6 +1690,12 @@
       <c r="E28" t="s">
         <v>137</v>
       </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
+        <v>205</v>
+      </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
@@ -1350,6 +1713,12 @@
       <c r="E29" t="s">
         <v>117</v>
       </c>
+      <c r="F29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" t="s">
+        <v>208</v>
+      </c>
       <c r="I29" t="b">
         <v>1</v>
       </c>
@@ -1367,6 +1736,12 @@
       <c r="E30" t="s">
         <v>140</v>
       </c>
+      <c r="F30" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" t="s">
+        <v>209</v>
+      </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
@@ -1384,6 +1759,12 @@
       <c r="E31" t="s">
         <v>141</v>
       </c>
+      <c r="F31" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" t="s">
+        <v>212</v>
+      </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
@@ -1401,6 +1782,12 @@
       <c r="E32" t="s">
         <v>144</v>
       </c>
+      <c r="F32" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" t="s">
+        <v>213</v>
+      </c>
       <c r="I32" t="b">
         <v>1</v>
       </c>
@@ -1418,6 +1805,12 @@
       <c r="E33" t="s">
         <v>145</v>
       </c>
+      <c r="F33" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" t="s">
+        <v>216</v>
+      </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
@@ -1435,6 +1828,12 @@
       <c r="E34" t="s">
         <v>148</v>
       </c>
+      <c r="F34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" t="s">
+        <v>217</v>
+      </c>
       <c r="I34" t="b">
         <v>1</v>
       </c>
@@ -1452,6 +1851,12 @@
       <c r="E35" t="s">
         <v>149</v>
       </c>
+      <c r="F35" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" t="s">
+        <v>220</v>
+      </c>
       <c r="I35" t="b">
         <v>1</v>
       </c>
@@ -1469,6 +1874,12 @@
       <c r="E36" t="s">
         <v>152</v>
       </c>
+      <c r="F36" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" t="s">
+        <v>221</v>
+      </c>
       <c r="I36" t="b">
         <v>1</v>
       </c>
@@ -1485,6 +1896,12 @@
       </c>
       <c r="E37" t="s">
         <v>153</v>
+      </c>
+      <c r="F37" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" t="s">
+        <v>223</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>

--- a/Data/Book3.xlsx
+++ b/Data/Book3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="295">
   <si>
     <t>id</t>
   </si>
@@ -60,9 +60,6 @@
     <t>top_visits</t>
   </si>
   <si>
-    <t xml:space="preserve">t’s a part of historic colonial period where the freedom fighter kept in prison and tortured  . After the independence its became tourist attraction  </t>
-  </si>
-  <si>
     <t>rk_beach</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Mahabodhi Temple</t>
   </si>
   <si>
-    <t>rack_garden</t>
-  </si>
-  <si>
     <t>Rock Garden</t>
   </si>
   <si>
@@ -688,16 +682,243 @@
   </si>
   <si>
     <t>88.36°E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s a part of historic colonial period where the freedom fighter kept in prison and tortured  . After the independence its became tourist attraction  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A famous lively beachfrant in vishakhapatnam known for its scenic promenade street food museums and nearby Ramkrishna Mission </t>
+  </si>
+  <si>
+    <t>Twang Monestery is the largest monestary in india and a significant centre for Mahayan Bhuddhism located in himalyas of Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamakhya Temple is a highly rivered hindu temple dedicated to Goddess Shakti </t>
+  </si>
+  <si>
+    <t>Mahabodhi Temple in Bodh Gaya is famous as the sacred site where lord Buddha attained enlightment making it holiest place in Bhuddism</t>
+  </si>
+  <si>
+    <t>rock_garden</t>
+  </si>
+  <si>
+    <t>The Rock Garden of Chandigarh is a sclupture garden which consists manmade interlinked waterfalls and many other sclupture</t>
+  </si>
+  <si>
+    <t>Nandanvan jungle safari is a place of pleasing experience for its visitors its not have local wildlife but its take care to the wild life such a prime example of conservation of wildlife</t>
+  </si>
+  <si>
+    <t>The Moti Daman Port is made during portugese colonial period in 1559 AD situated a top of hill looking to the Arabian Sea which provide mesmarizing view for its visitors</t>
+  </si>
+  <si>
+    <t>The red fort in delhi was build by theMughal Emperor Sha Jhan in the 17th centuary which serve as a palace for the mughal empire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its known as the Queen of Beech which is a vast popular stretch of golden sand in North Goa </t>
+  </si>
+  <si>
+    <t>The statue of unity is the warlds largest statue in Gujrat honoring Sardar Vallabh Bhai Patel who is also known as the steel man of india</t>
+  </si>
+  <si>
+    <t>Cyber hub most commonly refer to DLF cyber hub of gurugram a popular urban destination known for its diverse resturants cafes pubs and entertainments</t>
+  </si>
+  <si>
+    <t>Mall road of shimla is city busting historic and heart pedestrian focussed street build during british rule perfect for stroolong shopping</t>
+  </si>
+  <si>
+    <t>Dal lake is a fresh water lake in srinagar the summer capital of jammu and kashmir it is a urbon lake and second largest lake of jammu and a most isited place in srinagar</t>
+  </si>
+  <si>
+    <t>Hundru Falls is a magestic waterfalls in the rachi district of jharkhand created by the subermarekha river .</t>
+  </si>
+  <si>
+    <t>Lalbagh garden is primerly known as the famous lalbagh botonical garden with ancient trees and diverse plant collection built around historic rock formation</t>
+  </si>
+  <si>
+    <t>Padhmanabhswamy temple is refer to sree iconic hindu temple kerala dedicated to lord vishnu famous for its wealth and creation</t>
+  </si>
+  <si>
+    <t>A stunning high altitude saltwater lake in the himalyas famous for itsvibrant blue waters that shifts colors</t>
+  </si>
+  <si>
+    <t>The capital and one of the most inhabited island of lakshdweep its known for the white sand beaches lagoons coral reefs and mosques servings</t>
+  </si>
+  <si>
+    <t>A UNESCO world heritage site in MP are famous for there intricate Nagara style architecture and detailed</t>
+  </si>
+  <si>
+    <t>Famous for a Queen Necklace a historic C shaped promenade along the arabian sea  famous for its stunning sunsets</t>
+  </si>
+  <si>
+    <t>Kangala fort is cfamous as the ancient capital and royal seat of the manipur kingdom a scared site of meitei people holding immence historica political and religious significance</t>
+  </si>
+  <si>
+    <t>Elephant falls is a two tier waterfall in shilong meghalaya The montain stream descends through two successive falls.</t>
+  </si>
+  <si>
+    <t>It is natural lake famous for its beauty and facinating view for its visitors its one of the remaining source of clean water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hornbill festival is an annoul festival celebrated from 1 to 10 december in the north eastern indian state of nagaland which represents all ethenic groups of nagaland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The UNESCO world heritage site at konark it’s a magnificent 13 centuary architectural marvel built as a collossal chariot for the sun god  </t>
+  </si>
+  <si>
+    <t>Also known as Rock beach beachfront in bay of bengal famous for itspedestrial walkway senic view</t>
+  </si>
+  <si>
+    <t>Thegolden temple in amritsar punjab is the holiest shrine in sikhism a beautyfull spiritual hub known for its stunning golden domes reflecting in the scared poles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hawa Mehal or the palace of winds build in 179 by maharaja sawai pratap singh famous for its unique façade for 953 small laticed window </t>
+  </si>
+  <si>
+    <t>MG Marg or the Mahatma Gandhi Marg is the busting pedestrial only heart of gangtok sikkim a vibrant city centre famous for its clean vehicle free zone</t>
+  </si>
+  <si>
+    <t>The meenakshi temple is a historic hindu temple in madurai tamil nadu dedicated to godess meenakshi and lord sundareswarar shiva</t>
+  </si>
+  <si>
+    <t>Charminar is  a monument located in hyderabad telangana constructed in 1591 it’s a symbol of hyderabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a state museum of the Indian State of Tripura and formal royal palace of the princely state of tripura Its showcases the lifestyle arts , culture, tradition </t>
+  </si>
+  <si>
+    <t>Taj Mahal was build by mughal ruler Shah Jha in during mughal empire its known for its beauty and consider as the symbal of love world wide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kedar naqth is one of the secret  hindu place located in devbhoomi uttarakhand which is dedicated to lord shiva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most commanly refers to the majestic victoria memorial hall in kolkata a grand white marbles building and museum desdicated to Queen victoria showcasing indo british history </t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/historic-prison-building-with-arched-windows-and-courtyard-ya8UP-PnU9I</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/rocks-extend-into-the-ocean-from-the-shoreline-KWU0lZeXNiY</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-room-filled-with-lots-of-decorations-and-a-clock-JLJSvyk-JsM</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-large-stone-structure-with-a-bird-flying-over-it-0FHziczXy_U</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-temple-is-seen-through-the-trees-I4gmAUYUYEk</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/gray-stone-beside-river-B8JFJWzAC9s</t>
+  </si>
+  <si>
+    <t>https://www.istockphoto.com/photo/mount-vasuki-gm906554328-249851245</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-swan-floats-on-water-near-a-cityscape-ikntqBeSjNY</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/lahori-gate-of-red-fort-lal-qila-constructed-in-17th-century-by-mughal-king-shah-jahan-unesco-world-heritage-site-old-delhi-india-JdFQZLcfXRg</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/vagator-or-ozran-beach-with-palms-aerial-panoramic-view-in-north-goa-india-yQ5KOCu-Dys</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-large-statue-of-a-man-standing-in-front-of-a-building-XyzeinaNWWc</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-black-and-white-photo-of-a-building-JOlU0UmQISM</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/christ-church-in-shimla-is-the-second-oldest-church-in-north-india-mr9437geeiw</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-body-of-water-with-trees-in-the-background-PtF4syxbIn4</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-very-tall-waterfall-with-lots-of-water-coming-out-of-it-JYBHaEEfgG8</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/frosty-garden-beds-with-trees-in-the-background-q05qGlFhbec</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-building-with-a-dome-and-trees-j_TLKWDnt3s</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/landscape-of-pangong-tso-lake-in-ladakh-indian-himalaya-2QoLftIaHOA</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/islet-on-sea-LQ_SoWQDk84</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/famous-indian-tourist-landmark-kandariya-mahadev-temple-khajuraho-india-unesco-world-heritage-site-JHoje1cjs7s</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-body-of-water-with-a-city-in-the-background-nsunJX3Q9lg</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-very-tall-hill-with-a-castle-on-top-of-it-_e9qPYXz1gQ</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-large-waterfall-in-the-middle-of-a-body-of-water-sL5hWfRABLI</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/scenic-view-of-a-lake-with-outdoor-seating-WF6x1CvIjt0</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-group-of-people-standing-around-each-other-BllhMTogJfs</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-large-stone-structure-with-steps-leading-up-to-it-6xMSpPxhKRg</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-beach-with-waves-and-mountains-in-the-background-P72N1EjOQOw</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/brown-and-white-concrete-building-near-body-of-water-under-gray-clouds-vpOWkXUbko8</t>
+  </si>
+  <si>
+    <t>https://www.incredibleindia.gov.in/en/rajasthan/jaipur/hawa-mahal</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.in/Attraction_Review-g659796-d6961638-Reviews-MG_Marg-Gangtok_East_Sikkim_Sikkim.html</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-large-building-that-has-some-statues-on-it-dsl0FKD52nQ</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-large-white-building-with-two-towers-on-top-of-it-F-LVLE4r7sA</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/jayachamarajendra-or-jaganmohan-art-gallery-in-the-centre-of-mysore-city-in-india-rUIPXY6PlVs</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/taj-mahal-india-iWMfiInivp4</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/a-group-of-people-standing-around-a-small-building-yDL_xEoWKkA</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/ornate-monument-featuring-a-statue-of-queen-victoria-iTJJm5oXS5A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -720,19 +941,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -740,6 +973,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I37" totalsRowShown="0">
+  <autoFilter ref="A1:I37"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="name"/>
+    <tableColumn id="3" name="image_url" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="location"/>
+    <tableColumn id="5" name="categary"/>
+    <tableColumn id="6" name="latitude"/>
+    <tableColumn id="7" name="longetude"/>
+    <tableColumn id="8" name="Description" dataDxfId="0"/>
+    <tableColumn id="9" name="top_visits"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1031,20 +1282,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
     <col min="8" max="8" width="53.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1054,7 +1306,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1076,15 +1328,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1096,819 +1351,1070 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
         <v>86</v>
       </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" t="s">
         <v>155</v>
       </c>
-      <c r="G3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
         <v>89</v>
       </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="s">
         <v>158</v>
       </c>
-      <c r="G4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="H5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" t="s">
         <v>90</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>91</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" t="s">
         <v>159</v>
       </c>
-      <c r="G5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="H6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
         <v>92</v>
       </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" t="s">
         <v>162</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>194</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" t="s">
         <v>161</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" t="s">
-        <v>168</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" t="s">
-        <v>169</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" t="s">
-        <v>172</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" t="s">
-        <v>176</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" t="s">
-        <v>177</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" t="s">
-        <v>179</v>
-      </c>
-      <c r="G15" t="s">
-        <v>180</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G16" t="s">
-        <v>181</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G17" t="s">
-        <v>184</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" t="s">
-        <v>188</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" t="s">
-        <v>190</v>
-      </c>
-      <c r="G20" t="s">
-        <v>189</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" t="s">
-        <v>191</v>
-      </c>
-      <c r="G21" t="s">
-        <v>192</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" t="s">
-        <v>194</v>
-      </c>
-      <c r="G22" t="s">
-        <v>193</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" t="s">
-        <v>195</v>
-      </c>
-      <c r="G23" t="s">
-        <v>196</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" t="s">
-        <v>197</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" t="s">
-        <v>199</v>
-      </c>
-      <c r="G25" t="s">
-        <v>200</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" t="s">
-        <v>202</v>
-      </c>
-      <c r="G26" t="s">
-        <v>201</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" t="s">
-        <v>203</v>
-      </c>
-      <c r="G27" t="s">
-        <v>204</v>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" t="s">
-        <v>206</v>
-      </c>
-      <c r="G28" t="s">
-        <v>205</v>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" t="s">
-        <v>208</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" t="s">
-        <v>210</v>
-      </c>
-      <c r="G30" t="s">
-        <v>209</v>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" t="s">
-        <v>141</v>
-      </c>
-      <c r="F31" t="s">
-        <v>211</v>
-      </c>
-      <c r="G31" t="s">
-        <v>212</v>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" t="s">
-        <v>214</v>
-      </c>
-      <c r="G32" t="s">
-        <v>213</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" t="s">
-        <v>216</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" t="s">
-        <v>218</v>
-      </c>
-      <c r="G34" t="s">
-        <v>217</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G36" t="s">
         <v>219</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H36" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" t="s">
         <v>220</v>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>221</v>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" t="s">
-        <v>222</v>
-      </c>
-      <c r="G37" t="s">
-        <v>223</v>
+      <c r="H37" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C24" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
+    <hyperlink ref="C26" r:id="rId25"/>
+    <hyperlink ref="C27" r:id="rId26"/>
+    <hyperlink ref="C28" r:id="rId27"/>
+    <hyperlink ref="C29" r:id="rId28"/>
+    <hyperlink ref="C30" r:id="rId29"/>
+    <hyperlink ref="C31" r:id="rId30"/>
+    <hyperlink ref="C32" r:id="rId31"/>
+    <hyperlink ref="C33" r:id="rId32"/>
+    <hyperlink ref="C34" r:id="rId33"/>
+    <hyperlink ref="C35" r:id="rId34"/>
+    <hyperlink ref="C36" r:id="rId35"/>
+    <hyperlink ref="C37" r:id="rId36"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId37"/>
+  </tableParts>
 </worksheet>
 </file>
 
